--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_42.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_42.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_0</t>
+          <t>model_1_42_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999409408105887</v>
+        <v>0.9364644332967917</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8286279145951504</v>
+        <v>0.7451942905650928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8212950360442235</v>
+        <v>0.6536274143290888</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997824936705819</v>
+        <v>0.9171703230593355</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002458354526178166</v>
+        <v>0.2644684926005</v>
       </c>
       <c r="G2" t="n">
-        <v>1.145965924198125</v>
+        <v>1.703886952263633</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6392172941606444</v>
+        <v>1.238954655108387</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003986046434202421</v>
+        <v>0.4208866462072561</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05245394460024817</v>
+        <v>1.287086783619658</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01567914068492966</v>
+        <v>0.5142650023096069</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003779788122323</v>
+        <v>0.9134834836381845</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01592607147732679</v>
+        <v>0.5223641620195825</v>
       </c>
       <c r="N2" t="n">
-        <v>146.6216962752747</v>
+        <v>36.66006631076446</v>
       </c>
       <c r="O2" t="n">
-        <v>287.956868818491</v>
+        <v>73.62464989899028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_1</t>
+          <t>model_1_42_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999404821463441</v>
+        <v>0.9365380169162837</v>
       </c>
       <c r="C3" t="n">
-        <v>0.828592561673277</v>
+        <v>0.7451058556615142</v>
       </c>
       <c r="D3" t="n">
-        <v>0.821182634256443</v>
+        <v>0.6547219532181955</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997517639461428</v>
+        <v>0.9183448652921178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002477446547807028</v>
+        <v>0.2641621988199149</v>
       </c>
       <c r="G3" t="n">
-        <v>1.146202329349478</v>
+        <v>1.704478316871068</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6396193488381049</v>
+        <v>1.235039552967064</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004549202958667173</v>
+        <v>0.414918385078595</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05153095796903218</v>
+        <v>1.283933126910962</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01573990644129446</v>
+        <v>0.5139671184228762</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003809142633976</v>
+        <v>0.9135836826094076</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01598779423361086</v>
+        <v>0.5220615867594105</v>
       </c>
       <c r="N3" t="n">
-        <v>146.6062239200792</v>
+        <v>36.66238395005277</v>
       </c>
       <c r="O3" t="n">
-        <v>287.9413964632956</v>
+        <v>73.62696753827859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_3</t>
+          <t>model_1_42_9</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999396329723578</v>
+        <v>0.9363399423631643</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8285794614367612</v>
+        <v>0.7448617173109258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8212353931986542</v>
+        <v>0.6520288558754108</v>
       </c>
       <c r="E4" t="n">
-        <v>0.99973937441147</v>
+        <v>0.9154312073878694</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002512793641694234</v>
+        <v>0.2649866894352376</v>
       </c>
       <c r="G4" t="n">
-        <v>1.14628993069138</v>
+        <v>1.706110871145608</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6394306331609545</v>
+        <v>1.244672606007448</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004776255020262669</v>
+        <v>0.4297237030371917</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05258582639506384</v>
+        <v>1.291748053888221</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01585179372088293</v>
+        <v>0.514768578523629</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003863489769103</v>
+        <v>0.9133139640689897</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0161014436260066</v>
+        <v>0.5228756690555839</v>
       </c>
       <c r="N4" t="n">
-        <v>146.5778904662078</v>
+        <v>36.65615136560737</v>
       </c>
       <c r="O4" t="n">
-        <v>287.9130630094242</v>
+        <v>73.62073495383319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_2</t>
+          <t>model_1_42_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999395704717313</v>
+        <v>0.9366317085876068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8285730680034594</v>
+        <v>0.7446292838888641</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8212614621821848</v>
+        <v>0.6564042279703504</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997410051786936</v>
+        <v>0.9201237761480973</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002515395246952611</v>
+        <v>0.2637722047367618</v>
       </c>
       <c r="G5" t="n">
-        <v>1.146332683609308</v>
+        <v>1.707665154509191</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6393373859184326</v>
+        <v>1.229022153722501</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004746369389373839</v>
+        <v>0.4058791149555062</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0527820247696188</v>
+        <v>1.280481725004904</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01585999762595383</v>
+        <v>0.5135875823428384</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003867489809195</v>
+        <v>0.9137112627575923</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01610977673438148</v>
+        <v>0.5216760733655089</v>
       </c>
       <c r="N5" t="n">
-        <v>146.5758208498524</v>
+        <v>36.66533881832024</v>
       </c>
       <c r="O5" t="n">
-        <v>287.9109933930688</v>
+        <v>73.62992240654606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_4</t>
+          <t>model_1_42_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.99994018579885</v>
+        <v>0.936602881763924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8285510835665096</v>
+        <v>0.7445732523428454</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8209893679037938</v>
+        <v>0.6558383904891567</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997080529667215</v>
+        <v>0.9195289270880893</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000248978209136629</v>
+        <v>0.2638921971599263</v>
       </c>
       <c r="G6" t="n">
-        <v>1.14647969364042</v>
+        <v>1.70803983771542</v>
       </c>
       <c r="H6" t="n">
-        <v>0.640310651375304</v>
+        <v>1.231046121583588</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000535025548033111</v>
+        <v>0.4089017517097898</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0538119241184773</v>
+        <v>1.281554176911328</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01577904335302457</v>
+        <v>0.5137043869385645</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003828108873599</v>
+        <v>0.9136720092104498</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01602754751257817</v>
+        <v>0.5217947175168559</v>
       </c>
       <c r="N6" t="n">
-        <v>146.5962903576732</v>
+        <v>36.66442920664432</v>
       </c>
       <c r="O6" t="n">
-        <v>287.9314629008896</v>
+        <v>73.62901279487014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_5</t>
+          <t>model_1_42_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999409871811665</v>
+        <v>0.9366579879066405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8284983597571658</v>
+        <v>0.7445363975127913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8207524213979344</v>
+        <v>0.6569751901022231</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999708248943624</v>
+        <v>0.920720187583459</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000245642433849849</v>
+        <v>0.2636628163697094</v>
       </c>
       <c r="G7" t="n">
-        <v>1.146832257996274</v>
+        <v>1.708286286133692</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6411581952878157</v>
+        <v>1.226979855283078</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0005346663984691431</v>
+        <v>0.4028485392239497</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05570013866179352</v>
+        <v>1.27941018164836</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01567298420371337</v>
+        <v>0.5134810769343983</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003776820405342</v>
+        <v>0.9137470473622338</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01591981803768557</v>
+        <v>0.5215678906033522</v>
       </c>
       <c r="N7" t="n">
-        <v>146.6232672007076</v>
+        <v>36.66616840577078</v>
       </c>
       <c r="O7" t="n">
-        <v>287.958439743924</v>
+        <v>73.6307519939966</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_6</t>
+          <t>model_1_42_0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999420182182646</v>
+        <v>0.9367267782386248</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8282494106746729</v>
+        <v>0.7444520910512863</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8208406133645763</v>
+        <v>0.6641203939720732</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9996767418918167</v>
+        <v>0.9278631067022821</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002413507144038135</v>
+        <v>0.2633764747763405</v>
       </c>
       <c r="G8" t="n">
-        <v>1.148496981657208</v>
+        <v>1.708850043829972</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6408427377368018</v>
+        <v>1.201421875343349</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0005924065901430598</v>
+        <v>0.3665528613571291</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05449496703644374</v>
+        <v>1.26681603050734</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01553546634008176</v>
+        <v>0.5132021772911144</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003710834031068</v>
+        <v>0.9138407193036593</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01578013440516919</v>
+        <v>0.5212845985694839</v>
       </c>
       <c r="N8" t="n">
-        <v>146.6585188716596</v>
+        <v>36.66834161468596</v>
       </c>
       <c r="O8" t="n">
-        <v>287.993691414876</v>
+        <v>73.63292520291178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_7</t>
+          <t>model_1_42_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999422072528689</v>
+        <v>0.9367464416417399</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8282371949061824</v>
+        <v>0.7443619492025317</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8208135306277565</v>
+        <v>0.6598963232657139</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999671582461003</v>
+        <v>0.9237125130152165</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002405638528167786</v>
+        <v>0.2632946253359236</v>
       </c>
       <c r="G9" t="n">
-        <v>1.148578668557353</v>
+        <v>1.709452822787659</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6409396111160583</v>
+        <v>1.216531131334304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006018618234010406</v>
+        <v>0.3876434839605404</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0546855185859052</v>
+        <v>1.274070456223506</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01551012098008196</v>
+        <v>0.5131224272392736</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003698735816393</v>
+        <v>0.9138674950015182</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01575438988108546</v>
+        <v>0.5212035925340475</v>
       </c>
       <c r="N9" t="n">
-        <v>146.6650500067595</v>
+        <v>36.66896325077769</v>
       </c>
       <c r="O9" t="n">
-        <v>288.0002225499759</v>
+        <v>73.63354683900351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_8</t>
+          <t>model_1_42_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999407697162288</v>
+        <v>0.9367349207246333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8281098303799191</v>
+        <v>0.7442896264581673</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8206906495915307</v>
+        <v>0.6593041301999958</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996181344752254</v>
+        <v>0.9231138682797498</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000246547637458374</v>
+        <v>0.263342581460952</v>
       </c>
       <c r="G10" t="n">
-        <v>1.149430355730935</v>
+        <v>1.709936445312239</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6413791494575863</v>
+        <v>1.218649371593051</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0006998112273075859</v>
+        <v>0.3906854078733996</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05525653805373126</v>
+        <v>1.275132218457934</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01570183548055367</v>
+        <v>0.5131691548222204</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003790738161356</v>
+        <v>0.9138518069441814</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0159491236932954</v>
+        <v>0.5212510560297152</v>
       </c>
       <c r="N10" t="n">
-        <v>146.6159106554875</v>
+        <v>36.66859900666777</v>
       </c>
       <c r="O10" t="n">
-        <v>287.9510831987038</v>
+        <v>73.63318259489358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_42_9</t>
+          <t>model_1_42_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999159970634944</v>
+        <v>0.936754643630678</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8281011363249744</v>
+        <v>0.7442426134033137</v>
       </c>
       <c r="D11" t="n">
-        <v>0.819526656280711</v>
+        <v>0.6604919864627485</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9993134778623928</v>
+        <v>0.9243104883767067</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0003496644658166627</v>
+        <v>0.2632604843380017</v>
       </c>
       <c r="G11" t="n">
-        <v>1.149488492916383</v>
+        <v>1.710250821826521</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6455426860381784</v>
+        <v>1.214400478617048</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001258128499492891</v>
+        <v>0.3846049613716809</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07035340141132332</v>
+        <v>1.273010300173858</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01869931725536156</v>
+        <v>0.5130891582736881</v>
       </c>
       <c r="L11" t="n">
-        <v>1.005376187936356</v>
+        <v>0.9138786636673062</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01899381280967404</v>
+        <v>0.5211697996155107</v>
       </c>
       <c r="N11" t="n">
-        <v>145.9170730647864</v>
+        <v>36.66922260443199</v>
       </c>
       <c r="O11" t="n">
-        <v>287.2522456080027</v>
+        <v>73.6338061926578</v>
       </c>
     </row>
   </sheetData>
